--- a/Materi/Aplikasi Kalkulator/Bug_Kalkulator.xlsx
+++ b/Materi/Aplikasi Kalkulator/Bug_Kalkulator.xlsx
@@ -1,12 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aslamadin Alvian Haz\Documents\Batch 324 QA XSIS Academy\batch-324-qa\Materi\Aplikasi Kalkulator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6C681D-8EAB-42A6-8DA4-EC6164B527E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -192,43 +209,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
@@ -238,7 +256,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,7 +308,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -298,131 +322,139 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFBFBFBF"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFBFBFBF"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -612,39 +644,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.25"/>
-    <col customWidth="1" min="2" max="2" width="33.88"/>
-    <col customWidth="1" min="3" max="3" width="34.88"/>
-    <col customWidth="1" min="4" max="4" width="35.0"/>
-    <col customWidth="1" min="5" max="5" width="22.13"/>
-    <col customWidth="1" min="6" max="6" width="22.38"/>
-    <col customWidth="1" min="13" max="13" width="42.63"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="11"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2">
-        <f>TODAY()</f>
-        <v>45156</v>
+        <f ca="1">TODAY()</f>
+        <v>45159</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -657,7 +695,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -702,44 +740,44 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:17" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="22" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="3"/>
@@ -747,44 +785,44 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="22" t="s">
         <v>36</v>
       </c>
       <c r="N4" s="3"/>
@@ -792,44 +830,44 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:17" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="22" t="s">
         <v>46</v>
       </c>
       <c r="N5" s="3"/>
@@ -837,44 +875,44 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:17" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="22" t="s">
         <v>54</v>
       </c>
       <c r="N6" s="3"/>
@@ -886,11 +924,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="J3:J6">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="J3:J6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"New,Fixed,Reopen,Won't Fix"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>